--- a/xlsx/五月花号公约_intext.xlsx
+++ b/xlsx/五月花号公约_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>五月花号公约</t>
   </si>
@@ -29,7 +29,7 @@
     <t>北美洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_五月花号公约</t>
+    <t>政策_政策_美国_五月花号公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8D%A8%E7%AB%8B%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>美國獨立宣言</t>
+    <t>美国独立宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:US-stub</t>
@@ -960,7 +957,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
         <v>4</v>
@@ -986,10 +983,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
